--- a/PTBR/Lang/PTBR/Dialog/Drama/kettle.xlsx
+++ b/PTBR/Lang/PTBR/Dialog/Drama/kettle.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\Drama\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A5A9FD-7F0E-4979-88E2-5EC267AD5A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="kettle" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="kettle" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -20,57 +36,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="199">
-  <si>
-    <t xml:space="preserve">step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">param</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text_JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text_EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">main</t>
-  </si>
-  <si>
-    <t xml:space="preserve">風の囁く古い言葉が、君には聞こえるかな？私は風の物語を学ぶために、この世界をさまよっているんだ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can you hear the ancient words the wind whispers? I wander this world to learn the story of the wind.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">topics</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="272">
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>if2</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>text_JP</t>
+  </si>
+  <si>
+    <t>text_EN</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>風の囁く古い言葉が、君には聞こえるかな？私は風の物語を学ぶために、この世界をさまよっているんだ。</t>
+  </si>
+  <si>
+    <t>Can you hear the ancient words the wind whispers? I wander this world to learn the story of the wind.</t>
+  </si>
+  <si>
+    <t>topics</t>
   </si>
   <si>
     <r>
@@ -81,7 +97,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">&gt;=,*</t>
+      <t>&gt;=,*</t>
     </r>
     <r>
       <rPr>
@@ -91,7 +107,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">vernis_gold</t>
+      <t>vernis_gold</t>
     </r>
     <r>
       <rPr>
@@ -101,98 +117,98 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">,0</t>
+      <t>,0</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">choice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">聞きたいことがある</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I have some questions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice/bye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cancel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">私で役に立てるかな？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How can I help you?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">topics_ash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">魔石について</t>
-  </si>
-  <si>
-    <t xml:space="preserve">About magic stones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">topics_copy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">=,*vernis_gold,999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">複製販売について</t>
-  </si>
-  <si>
-    <t xml:space="preserve">About copy shop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(戻る)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Back)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パルミア王立図書館の古文書の中に、幾つか魔石についての伝承の記述が残っている。
+    <t>choice</t>
+  </si>
+  <si>
+    <t>聞きたいことがある</t>
+  </si>
+  <si>
+    <t>I have some questions.</t>
+  </si>
+  <si>
+    <t>inject</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>choice/bye</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>私で役に立てるかな？</t>
+  </si>
+  <si>
+    <t>How can I help you?</t>
+  </si>
+  <si>
+    <t>topics_ash</t>
+  </si>
+  <si>
+    <t>魔石について</t>
+  </si>
+  <si>
+    <t>About magic stones</t>
+  </si>
+  <si>
+    <t>topics_copy</t>
+  </si>
+  <si>
+    <t>=,*vernis_gold,999</t>
+  </si>
+  <si>
+    <t>複製販売について</t>
+  </si>
+  <si>
+    <t>About copy shop</t>
+  </si>
+  <si>
+    <t>(戻る)</t>
+  </si>
+  <si>
+    <t>(Back)</t>
+  </si>
+  <si>
+    <t>パルミア王立図書館の古文書の中に、幾つか魔石についての伝承の記述が残っている。
 パルミアには、かつて大いなる力を秘めた三つの魔石が存在したという。覇者の魔石、賢者の魔石、愚者の魔石、王国に繁栄をもたらしたこれらの魔石はしかし、ザシム王の時代に、とある秘密を永遠に守るための封印の鍵として、最も強大で邪悪な存在の元へと贈られた。
 一つは古の王族に、一つは鋼鉄の竜に、一つは不浄の魔術師に。</t>
   </si>
   <si>
-    <t xml:space="preserve">Some legends about magic stones lie in the ancient manuscripts of the Palmian Royal Library.
+    <t>Some legends about magic stones lie in the ancient manuscripts of the Palmian Royal Library.
 It is said that Palmia once possessed three powerful magic stones: the King Stone, the Sage's Stone, and the Fool's Stone. These stones brought prosperity to the kingdom but were sent away to seal a secret forever during the reign of King Zashim. They were entrusted to the most powerful and evil beings.
 One to the ancient royal family, one to the steel dragon, and one to the corrupted necromancer.</t>
   </si>
   <si>
-    <t xml:space="preserve">その後魔石がどうなったのか、そしてザシム王が守ろうとした秘密は何だったのか、多くの学者や錬金術師達が真相の解明に挑んで来たが、答えは風に飛ばされる砂のように掴みどころがない。
+    <t>その後魔石がどうなったのか、そしてザシム王が守ろうとした秘密は何だったのか、多くの学者や錬金術師達が真相の解明に挑んで来たが、答えは風に飛ばされる砂のように掴みどころがない。
 この謎をいつか解き明かすのは、あるいは君のような冒険者なのかもしれないね。</t>
   </si>
   <si>
-    <t xml:space="preserve">What became of the stones and the secret that King Zashim tried to protect remains a mystery since then. Many scholars and alchemists have tried to uncover the truth, but the answers are as elusive as sand carried away by the wind.
+    <t>What became of the stones and the secret that King Zashim tried to protect remains a mystery since then. Many scholars and alchemists have tried to uncover the truth, but the answers are as elusive as sand carried away by the wind.
 Perhaps, one day, an adventurer like you might be the one to solve this mystery.</t>
   </si>
   <si>
-    <t xml:space="preserve">last</t>
-  </si>
-  <si>
-    <t xml:space="preserve">複製販売？　ああ、君達の冒険の手助けになればと思って始めてみたんだ。
+    <t>last</t>
+  </si>
+  <si>
+    <t>複製販売？　ああ、君達の冒険の手助けになればと思って始めてみたんだ。
 古い錬金術には、物質の特性を複製する技術が伝わっている。全てのアイテム…とはいかないけど、君が実際にクラフトしたことがあるアイテムや、種なんかも複製することができるよ。</t>
   </si>
   <si>
-    <t xml:space="preserve">My copy shop? Yes, I started this to help you on your adventures.
+    <t>My copy shop? Yes, I started this to help you on your adventures.
 Ancient alchemy has techniques for replicating the properties of materials. While it's not possible to duplicate every item, I can replicate items you've actually crafted or seeds, for instance.</t>
   </si>
   <si>
-    <t xml:space="preserve">もし複製したいアイテムがあれば、私に預けてくれ。多少時間はかかるが、定期的に複製を作っておこう。
+    <t>もし複製したいアイテムがあれば、私に預けてくれ。多少時間はかかるが、定期的に複製を作っておこう。
 そうそう、複製できるアイテムの最大個数や販売個数は、私の店の規模によって決まるんだ。こう言うのも心苦しいけど、もっとアイテムを複製したいなら、私の店に投資してもらえると助かるよ。</t>
   </si>
   <si>
-    <t xml:space="preserve">If you have an item you want to duplicate, leave it with me. It might take some time, but I'll try to regularly create duplicates for you.
+    <t>If you have an item you want to duplicate, leave it with me. It might take some time, but I'll try to regularly create duplicates for you.
 By the way, the maximum number of items I can duplicate and sell depends on the scale of my shop. I hate to say it, but if you need more items duplicated, you can invest in my shop.</t>
   </si>
   <si>
@@ -204,7 +220,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">quest_</t>
+      <t>quest_</t>
     </r>
     <r>
       <rPr>
@@ -214,62 +230,62 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">quru_past1</t>
+      <t>quru_past1</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">addActor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loytel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acceptQuest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quru_past1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">やあ、ロイテル。浮かない顔をしてどうした？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You seem down, Loytel. Is anything troubling you?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ケトル、あなたの弟子は、気難しい子だな…</t>
+    <t>addActor</t>
+  </si>
+  <si>
+    <t>loytel</t>
+  </si>
+  <si>
+    <t>acceptQuest</t>
+  </si>
+  <si>
+    <t>quru_past1</t>
+  </si>
+  <si>
+    <t>やあ、ロイテル。浮かない顔をしてどうした？</t>
+  </si>
+  <si>
+    <t>You seem down, Loytel. Is anything troubling you?</t>
+  </si>
+  <si>
+    <t>ケトル、あなたの弟子は、気難しい子だな…</t>
   </si>
   <si>
     <t xml:space="preserve">Kettle, your apprentice is quite a difficult child... </t>
   </si>
   <si>
-    <t xml:space="preserve">弟子…？ ああ、クルイツゥアは、私の弟子ではないよ。あの子は錬金術が嫌いだからね。</t>
+    <t>弟子…？ ああ、クルイツゥアは、私の弟子ではないよ。あの子は錬金術が嫌いだからね。</t>
   </si>
   <si>
     <t xml:space="preserve">Apprentice? Ah, Quruitzia is not my apprentice. In fact, she despises alchemy. </t>
   </si>
   <si>
-    <t xml:space="preserve">ほう、それはまた、どうして？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oh? Why is that?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">彼女の母親が錬金術師だったからだよ。</t>
+    <t>ほう、それはまた、どうして？</t>
+  </si>
+  <si>
+    <t>Oh? Why is that?</t>
+  </si>
+  <si>
+    <t>彼女の母親が錬金術師だったからだよ。</t>
   </si>
   <si>
     <t xml:space="preserve">Because her mother was an alchemist. </t>
   </si>
   <si>
-    <t xml:space="preserve">…</t>
+    <t>…</t>
   </si>
   <si>
     <t xml:space="preserve">... </t>
   </si>
   <si>
-    <t xml:space="preserve">BGM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">クルイツゥアの母親、彼女は私の親しい友人だったんだ。田舎の小さな村の錬金術師で、熱心な研究家だった。でも、よくある話だが、村人たちには理解されなかった。
+    <t>BGM</t>
+  </si>
+  <si>
+    <t>クルイツゥアの母親、彼女は私の親しい友人だったんだ。田舎の小さな村の錬金術師で、熱心な研究家だった。でも、よくある話だが、村人たちには理解されなかった。
 迷信深い村人たちは、彼女を魔女と呼び疎んだ。「魔女」の子であるクルイツゥアもまた、村の子供たちにいつも仲間外れにされ、生まれつき色の異なるその両眼は、「災いを呼ぶ瞳」と皆から恐れられた。</t>
   </si>
   <si>
@@ -277,48 +293,48 @@
 The superstitious villagers shunned her, calling her a witch. And being the witch’s daughter, Quruitzia was always ostracized by other children. Her naturally different-colored eyes were feared as "cursed eyes". </t>
   </si>
   <si>
-    <t xml:space="preserve">母親を病気で亡くした後、クルイツゥアは村の教会に預けられたが、そこでも彼女はのけものにされた。そしてある日、自分の潔白を証明するために、彼女は自らの手で片目をくり抜いてしまった。
+    <t>母親を病気で亡くした後、クルイツゥアは村の教会に預けられたが、そこでも彼女はのけものにされた。そしてある日、自分の潔白を証明するために、彼女は自らの手で片目をくり抜いてしまった。
 私が村を訪れた時、クルイツゥアは村外れのぼろ小屋のベッドの上で死にかけていたんだ。私は錬金術を使い、彼女の生を繋ぎとめたが、同時にそれは私たちの運命を結びつけた。彼女が私と旅を続けるのは、そういう理由さ。</t>
   </si>
   <si>
-    <t xml:space="preserve">After her mother died of illness, Quruitzia was left to the care of the village church where she remained an outcast. One day, she gouged out one of her eyes herself to prove her innocence.
+    <t>After her mother died of illness, Quruitzia was left to the care of the village church where she remained an outcast. One day, she gouged out one of her eyes herself to prove her innocence.
 When I visited the village, I found Quruitzia nearly dead on a bed in an abandoned shack on the outskirts. I used alchemy to save her life, which bound our fates together. That’s why she continues to travel with me.</t>
   </si>
   <si>
-    <t xml:space="preserve">…なんという話だ。目の色が違うから魔女などと、全くバカげている！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What a story...  To be deemed a witch just because of different eye colors, how absurd!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">その通り、といいたいところだが、「力」がそういった特徴を伴って表出することもある。
+    <t>…なんという話だ。目の色が違うから魔女などと、全くバカげている！</t>
+  </si>
+  <si>
+    <t>What a story...  To be deemed a witch just because of different eye colors, how absurd!</t>
+  </si>
+  <si>
+    <t>その通り、といいたいところだが、「力」がそういった特徴を伴って表出することもある。
 …私は、悲劇や村人たちの愚かさを語るために彼女の過去を明かしたわけではないんだ。</t>
   </si>
   <si>
-    <t xml:space="preserve">Indeed, I would like to agree, but sometimes, 'powers' do manifest with such traits.
+    <t>Indeed, I would like to agree, but sometimes, 'powers' do manifest with such traits.
 I did not share her past to speak of tragedies or the villagers' folly.</t>
   </si>
   <si>
-    <t xml:space="preserve">あの日…村を訪れた私が見たのは、命あるもの全てが死に絶えた凄惨な光景だった。それが彼女の「力」によるものかはわからない。だが、ロイテル、そして#pc、君たちには覚えておいてほしい。
+    <t>あの日…村を訪れた私が見たのは、命あるもの全てが死に絶えた凄惨な光景だった。それが彼女の「力」によるものかはわからない。だが、ロイテル、そして#pc、君たちには覚えておいてほしい。
 あの子は特別な力の元に生まれ、その力は確実に、彼女を取り巻くものたちの運命に影響を与えるだろう。
 もし君たちが望むなら、私とクルイツゥアは出ていくから、いつでも言ってくれ。</t>
   </si>
   <si>
-    <t xml:space="preserve">That day... what I saw when I visited the village was a horrific scene of death where every living thing had perished. Whether it was her ‘power’ I cannot say. But, Loytel, and you #pc, remember this. 
+    <t>That day... what I saw when I visited the village was a horrific scene of death where every living thing had perished. Whether it was her ‘power’ I cannot say. But, Loytel, and you #pc, remember this. 
 She was born under a peculiar power, and that power will undoubtedly affect the fates of those around her.
 If you ever wish us to leave, just say so.</t>
   </si>
   <si>
-    <t xml:space="preserve">ケトル…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oh Kettle...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">completeQuest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end</t>
+    <t>ケトル…</t>
+  </si>
+  <si>
+    <t>Oh Kettle...</t>
+  </si>
+  <si>
+    <t>completeQuest</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
   <si>
     <r>
@@ -329,7 +345,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">quest_</t>
+      <t>quest_</t>
     </r>
     <r>
       <rPr>
@@ -339,160 +355,160 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">exile_kettle</t>
+      <t>exile_kettle</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">exile_kettle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stopBGM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fadeOut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">setBG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bg3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fadeIn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">風一つない、気味の悪いくらい静かな夜だ。そこにいるんだろう、デミタス？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not a breath of wind, an eerily quiet night. You're there, aren't you, Demitas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demitas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フッ…汝からは隠れられぬな。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heh...I cannot hide from thee.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">汝は昔のままだ、エルディン…少なくともその姿は。
+    <t>exile_kettle</t>
+  </si>
+  <si>
+    <t>stopBGM</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>fadeOut</t>
+  </si>
+  <si>
+    <t>setBG</t>
+  </si>
+  <si>
+    <t>bg3</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>fadeIn</t>
+  </si>
+  <si>
+    <t>風一つない、気味の悪いくらい静かな夜だ。そこにいるんだろう、デミタス？</t>
+  </si>
+  <si>
+    <t>Not a breath of wind, an eerily quiet night. You're there, aren't you, Demitas?</t>
+  </si>
+  <si>
+    <t>demitas</t>
+  </si>
+  <si>
+    <t>フッ…汝からは隠れられぬな。</t>
+  </si>
+  <si>
+    <t>Heh...I cannot hide from thee.</t>
+  </si>
+  <si>
+    <t>汝は昔のままだ、エルディン…少なくともその姿は。
 このような存在に成り果てた今でさえ、汝と話していると、人間だった頃を思い出す。</t>
   </si>
   <si>
-    <t xml:space="preserve">Thou art as ever, Eludin... At least in appearance.
+    <t>Thou art as ever, Eludin... At least in appearance.
 Even now, having become such a being, speaking with thee reminds me of when I was human.</t>
   </si>
   <si>
-    <t xml:space="preserve">人間だった頃か、なるほど、ふふっ…
+    <t>人間だった頃か、なるほど、ふふっ…
 確かに君は、昔から何にでも首を突っ込みたがる癖があった。</t>
   </si>
   <si>
-    <t xml:space="preserve">When you were human, hehe... Indeed.
+    <t>When you were human, hehe... Indeed.
 You always had a habit of sticking your nose into everything.</t>
   </si>
   <si>
-    <t xml:space="preserve">夜な夜な私の仲間たちの周りを徘徊し、妙な話を吹き込んでいるのも、君らしいといえば君らしい。
+    <t>夜な夜な私の仲間たちの周りを徘徊し、妙な話を吹き込んでいるのも、君らしいといえば君らしい。
 …だけど、それだけかい？ 君は深入りしすぎている、あの子に。</t>
   </si>
   <si>
-    <t xml:space="preserve">Roaming around my companions night after night, spinning strange tales—it's just like you.
+    <t>Roaming around my companions night after night, spinning strange tales—it's just like you.
 ...But is that all? You're getting too involved with that girl.</t>
   </si>
   <si>
-    <t xml:space="preserve">ククク…老婆心だよ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heh heh heh... Just an old man's concern.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">あの娘は危険だ。かの瞳に宿るものが何なのか、汝もわかっているだろう。
+    <t>ククク…老婆心だよ。</t>
+  </si>
+  <si>
+    <t>Heh heh heh... Just an old man's concern.</t>
+  </si>
+  <si>
+    <t>あの娘は危険だ。かの瞳に宿るものが何なのか、汝もわかっているだろう。
 災眼は石の器…そして今この瞬間も、竜の子の中に眠る魔石は、器を求めている。</t>
   </si>
   <si>
-    <t xml:space="preserve">That girl is dangerous. Thou knowest what dwells within her eye.
+    <t>That girl is dangerous. Thou knowest what dwells within her eye.
 The ill-eyed is the stone vessel... And even now, the magic stone sleeping within the dragon child seeks its vessel.</t>
   </si>
   <si>
-    <t xml:space="preserve">デミタス、君の心配は有難い。だけど、私が傍にいる限り、魔石が目覚めることはない。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demitas, I appreciate your concern. But as long as I'm by her side, the magic stone will not awaken.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">なるほど、「最初の錬金術師」が言うならば、それは真実に違いない。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I see, if the "First Alchemist" says so, it must be true.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ククク…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heh heh heh...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…それでも、エルディン、運命はクルイツゥアとコルゴンを見つけるだろう。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...Even so, Eludin, fate will find Quruitzia and Corgon.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地上で人間と暮らす竜の子供、その噂は、やがて誰もが知るところ。もちろん、竜に手を出そうなどと考える者はいまい…ただ一人を除いては。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The rumor of a dragon child living among humans will soon be known by all. Of course, none would dare to harm the dragon... Save one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">かつてザシム王の時代、魔石が鋼鉄竜の元へ渡ったという伝承を知り、竜の死後も、失われた魔石の行方を血眼になって探し求めている者がいる。
+    <t>デミタス、君の心配は有難い。だけど、私が傍にいる限り、魔石が目覚めることはない。</t>
+  </si>
+  <si>
+    <t>Demitas, I appreciate your concern. But as long as I'm by her side, the magic stone will not awaken.</t>
+  </si>
+  <si>
+    <t>なるほど、「最初の錬金術師」が言うならば、それは真実に違いない。</t>
+  </si>
+  <si>
+    <t>I see, if the "First Alchemist" says so, it must be true.</t>
+  </si>
+  <si>
+    <t>ククク…</t>
+  </si>
+  <si>
+    <t>Heh heh heh...</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>…それでも、エルディン、運命はクルイツゥアとコルゴンを見つけるだろう。</t>
+  </si>
+  <si>
+    <t>...Even so, Eludin, fate will find Quruitzia and Corgon.</t>
+  </si>
+  <si>
+    <t>地上で人間と暮らす竜の子供、その噂は、やがて誰もが知るところ。もちろん、竜に手を出そうなどと考える者はいまい…ただ一人を除いては。</t>
+  </si>
+  <si>
+    <t>The rumor of a dragon child living among humans will soon be known by all. Of course, none would dare to harm the dragon... Save one.</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>かつてザシム王の時代、魔石が鋼鉄竜の元へ渡ったという伝承を知り、竜の死後も、失われた魔石の行方を血眼になって探し求めている者がいる。
 その者は竜の子の噂を聞き、それが意味する所を理解するだろう。
 その者は魔石を狙い、クルイツゥアとコルゴンを探し出すだろう。</t>
   </si>
   <si>
-    <t xml:space="preserve">There is one who knows the legend that the magic stone was given to the Steel Dragon in the time of King Zashim, one who has been desperately seeking the lost magic stone since the dragon's death.
+    <t>There is one who knows the legend that the magic stone was given to the Steel Dragon in the time of King Zashim, one who has been desperately seeking the lost magic stone since the dragon's death.
 That one will hear of the dragon child and understand its significance.
 That one will hunt down Quruitzia and Corgon.</t>
   </si>
   <si>
-    <t xml:space="preserve">…イスシズル。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...Issizzle.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">そう、闇の奇形「イスシズル」。
+    <t>…イスシズル。</t>
+  </si>
+  <si>
+    <t>...Issizzle.</t>
+  </si>
+  <si>
+    <t>そう、闇の奇形「イスシズル」。
 かつて偉大なる魔術師として名を馳せながら、魔石に囚われ、その身を闇に堕とした不浄の化け物…そして、汝が殺すことも、救うことも適わなかった、汝の憐れな愛弟子だ。</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes, "Issizzle", the dark abomination. 
+    <t>Yes, "Issizzle", the dark abomination. 
 Once a mighty sorcerer who didst earn great renown, now a foul creature ensnared by the magic stone, fallen into darkness... And thy pitiable disciple, whom thou couldst neither slay nor save.</t>
   </si>
   <si>
-    <t xml:space="preserve">汝は、あの娘をどうするつもりだ？
+    <t>汝は、あの娘をどうするつもりだ？
 いずれ魔石の虜となるか、かの者に利用されるか、殺されるか…</t>
   </si>
   <si>
-    <t xml:space="preserve">What wilt thou do with that girl?
+    <t>What wilt thou do with that girl?
 Eventually, she will either become enslaved by the magic stone, be used by him, or be killed...</t>
   </si>
   <si>
-    <t xml:space="preserve">真実から目を背けるな、「ケトル」。
+    <t>真実から目を背けるな、「ケトル」。
 あの娘に救いなどない。汝は同じ過ちを繰り返そうとしているのだ。そして、汝の甘さは、またしてもこの世界に災いをもたらすだろう。</t>
   </si>
   <si>
-    <t xml:space="preserve">Do not avert thine eyes from the truth, "Kettle."
+    <t>Do not avert thine eyes from the truth, "Kettle."
 There is no salvation for that girl. Thou art about to repeat the same mistake. And thy leniency will once again bring calamity upon this world.</t>
   </si>
   <si>
@@ -504,7 +520,7 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">quest_</t>
+      <t>quest_</t>
     </r>
     <r>
       <rPr>
@@ -514,93 +530,92 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">into_darkness</t>
+      <t>into_darkness</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">into_darkness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kettle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">みんな、少しいいかい？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everyone, may I have a moment?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corgon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">もきゅ？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mokyu?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">どうしたんだ、ケトル？こんな夜遅くに。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What's the matter, Kettle? At this hour?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">私たちに迫る危険がある。
+    <t>into_darkness</t>
+  </si>
+  <si>
+    <t>kettle</t>
+  </si>
+  <si>
+    <t>みんな、少しいいかい？</t>
+  </si>
+  <si>
+    <t>Everyone, may I have a moment?</t>
+  </si>
+  <si>
+    <t>corgon</t>
+  </si>
+  <si>
+    <t>もきゅ？</t>
+  </si>
+  <si>
+    <t>Mokyu?</t>
+  </si>
+  <si>
+    <t>どうしたんだ、ケトル？こんな夜遅くに。</t>
+  </si>
+  <si>
+    <t>What's the matter, Kettle? At this hour?</t>
+  </si>
+  <si>
+    <t>私たちに迫る危険がある。
 君たちには、知っておいてもらいたいんだ。かつて私の弟子だった男、イスシズルのこと、そしてクルイツゥアの瞳にくすぶる力のことを…</t>
   </si>
   <si>
-    <t xml:space="preserve">There is a danger approaching us.
+    <t>There is a danger approaching us.
 I want you all to know about it. A man who was once my apprentice, and the power smoldering within Quruitzia's eye...</t>
   </si>
   <si>
-    <t xml:space="preserve">86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…なるほど。頭がこん絡がりそうだ。
+    <t>86</t>
+  </si>
+  <si>
+    <t>…なるほど。頭がこん絡がりそうだ。
 クルイツゥアに流れる古き魔女の血脈…それに、コルゴンのあの小さな体の中に魔石が？</t>
   </si>
   <si>
-    <t xml:space="preserve">I see... My head feels like it's going to spin.
+    <t>I see... My head feels like it's going to spin.
 The ancient witch’s blood that runs through Quruitzia, and then there’s the Magic Stone within Corgon’s small body?</t>
   </si>
   <si>
-    <t xml:space="preserve">farris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">もしその話の通り、イスシズルが魔石を狙ってやって来るなら…今すぐにでも備えるべきです、ケトルさん。クルイツゥアとコルゴンを守らなくてはなりません。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If what you’re saying is true, Kettle, and Issizzle is coming for the Magic Stone... then we must prepare immediately. We have to protect Quruitzia and Corgon.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">またお前さんか…何がおかしいんだ？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And there you are again. What’s so amusing?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">その娘や竜の子の身の安全など問題ではない。
+    <t>farris</t>
+  </si>
+  <si>
+    <t>もしその話の通り、イスシズルが魔石を狙ってやって来るなら…今すぐにでも備えるべきです、ケトルさん。クルイツゥアとコルゴンを守らなくてはなりません。</t>
+  </si>
+  <si>
+    <t>If what you’re saying is true, Kettle, and Issizzle is coming for the Magic Stone... then we must prepare immediately. We have to protect Quruitzia and Corgon.</t>
+  </si>
+  <si>
+    <t>またお前さんか…何がおかしいんだ？</t>
+  </si>
+  <si>
+    <t>And there you are again. What’s so amusing?</t>
+  </si>
+  <si>
+    <t>その娘や竜の子の身の安全など問題ではない。
 世界そのものが、終わりの兆しを見せているのだ。この者たちの存在によってな。</t>
   </si>
   <si>
-    <t xml:space="preserve">The safety of the girl and the dragon child is of no matter.
+    <t>The safety of the girl and the dragon child is of no matter.
 The world itself shows signs of its end, due to their very existence.</t>
   </si>
   <si>
-    <t xml:space="preserve">どういうことですか、デミタスさん？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What do you mean, Demitas?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">この者たち…「古きもの」たちは、世界に災いと停滞しかもたらさない。彼らの強大な存在は歪みを生み、その輝きは周りのすべてを巻き込んで焼き尽くす。</t>
+    <t>どういうことですか、デミタスさん？</t>
+  </si>
+  <si>
+    <t>What do you mean, Demitas?</t>
+  </si>
+  <si>
+    <t>この者たち…「古きもの」たちは、世界に災いと停滞しかもたらさない。彼らの強大な存在は歪みを生み、その輝きは周りのすべてを巻き込んで焼き尽くす。</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="0"/>
         <charset val="128"/>
       </rPr>
       <t xml:space="preserve">Their </t>
@@ -612,7 +627,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">beings</t>
+      <t>beings</t>
     </r>
     <r>
       <rPr>
@@ -621,7 +636,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">... the Old Ones</t>
+      <t>... the Old Ones</t>
     </r>
     <r>
       <rPr>
@@ -634,7 +649,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">我々が築くべき意味は、彼らの理に容易く踏みにじられ、我々はただ、怯えながら運命を傍観する人形となるだろう。彼らが望もうとも、望まずともな。そのような世界に、如何なる発展が存在しよう？
+    <t>我々が築くべき意味は、彼らの理に容易く踏みにじられ、我々はただ、怯えながら運命を傍観する人形となるだろう。彼らが望もうとも、望まずともな。そのような世界に、如何なる発展が存在しよう？
 神々はそのために、人間への干渉を止め、この地上から去っていった。神々の子…神々の生み出した古き存在も、それに倣うべきなのだ。</t>
   </si>
   <si>
@@ -646,7 +661,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">The meaning we strive to build is trampled underfoot by their laws, as though it were but dust. P</t>
+      <t>The meaning we strive to build is trampled underfoot by their laws, as though it were but dust. P</t>
     </r>
     <r>
       <rPr>
@@ -666,7 +681,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">we become mere puppets, doomed to watch fate unfold. Whether these beings will it or no, all the same.</t>
+      <t>we become mere puppets, doomed to watch fate unfold. Whether these beings will it or no, all the same.</t>
     </r>
     <r>
       <rPr>
@@ -686,18 +701,18 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">hat progress could ever take root in such a world?
+      <t>hat progress could ever take root in such a world?
 It is for this reason that the gods did cease their meddling with mankind and departed from the earth. The Old Ones... the children wrought by the gods should follow their example as well.</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">…はぁ？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...Eh?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…つまり、イスシズルも、竜や魔女などといった迷惑な存在も、まとめて消えた方が世のためということだ。
+    <t>…はぁ？</t>
+  </si>
+  <si>
+    <t>...Eh?</t>
+  </si>
+  <si>
+    <t>…つまり、イスシズルも、竜や魔女などといった迷惑な存在も、まとめて消えた方が世のためということだ。
 ケトルよ、汝の甘さがもたらした災いを忘れたか？汝はイスシズルを殺すべきだった。そして、この娘も、竜の子も殺すべきなのだ。</t>
   </si>
   <si>
@@ -739,7 +754,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">a witch. B</t>
+      <t>a witch. B</t>
     </r>
     <r>
       <rPr>
@@ -749,7 +764,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">etter they be gone and forgotten</t>
+      <t>etter they be gone and forgotten</t>
     </r>
     <r>
       <rPr>
@@ -781,7 +796,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">H</t>
+      <t>H</t>
     </r>
     <r>
       <rPr>
@@ -791,7 +806,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">ast thou forgotten the calamity</t>
+      <t>ast thou forgotten the calamity</t>
     </r>
     <r>
       <rPr>
@@ -811,7 +826,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">thy mercy hath wrought</t>
+      <t>thy mercy hath wrought</t>
     </r>
     <r>
       <rPr>
@@ -821,7 +836,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">, Kettle</t>
+      <t>, Kettle</t>
     </r>
     <r>
       <rPr>
@@ -831,7 +846,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t xml:space="preserve">?</t>
+      <t>?</t>
     </r>
     <r>
       <rPr>
@@ -845,62 +860,62 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">おいおい、ちょっと待ってくれ。聞き捨てならんな。
+    <t>おいおい、ちょっと待ってくれ。聞き捨てならんな。
 この子たちの命をどうこうなどと、お前は何様のつもりだ？</t>
   </si>
   <si>
-    <t xml:space="preserve">Hey now, hold on a moment. I can't just let that pass.
+    <t>Hey now, hold on a moment. I can't just let that pass.
 Who do you think you are to say such things about these children’s lives?</t>
   </si>
   <si>
-    <t xml:space="preserve">クルイツゥアは危険な存在だ。汝も知っているだろう。娘の災眼は、一つの村に死をもたらした。そして、その力はまだ「目覚めてすら」いないのだ。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quruitzia is a dangerous being. Thou knowest it well. The girl's Ill-Eye brought death to an entire village. And that power hath not even 'awakened' yet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">だが、その引き金を引いたのは何だ？クルイツゥアを追い詰めたのは、迷信深い村人達だろう？
+    <t>クルイツゥアは危険な存在だ。汝も知っているだろう。娘の災眼は、一つの村に死をもたらした。そして、その力はまだ「目覚めてすら」いないのだ。</t>
+  </si>
+  <si>
+    <t>Quruitzia is a dangerous being. Thou knowest it well. The girl's Ill-Eye brought death to an entire village. And that power hath not even 'awakened' yet.</t>
+  </si>
+  <si>
+    <t>だが、その引き金を引いたのは何だ？クルイツゥアを追い詰めたのは、迷信深い村人達だろう？
 この子は、自分の力のことなんて、何も知らなかったんだぞ。それを責めるなんて、あんまりじゃないか。</t>
   </si>
   <si>
-    <t xml:space="preserve">But what triggered it? Was it not the superstitious villagers who drove Quruitzia to the brink?
+    <t>But what triggered it? Was it not the superstitious villagers who drove Quruitzia to the brink?
 She didn’t even understand her own power. Blaming her for that is just too cruel.</t>
   </si>
   <si>
-    <t xml:space="preserve">では、その娘への情けのために、この世界が滅んでも構わないのか？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Then, for the sake of mercy toward this girl, dost thou not mind if this world perisheth?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">そ、それは…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W-well, that's...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…構いません。そんな理屈でクルイツゥアの存在が否定される世界なら、いっそ滅んでしまえばいいんです。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...I don't mind. If this world denies Quruitzia's existence based on such reasoning, then it might as well perish.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">モキュッ！</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mokyu!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファ…ファリスさん、それはちょっと言い過ぎじゃ…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La...Lady Farris, isn't that going a bit too far...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">いいえ、ロイテル様。クルイツゥアは私たちの大切な仲間なんですよ。彼女を守るためなら、私は何だってします。例え、この世界の摂理に逆らってでも。
+    <t>では、その娘への情けのために、この世界が滅んでも構わないのか？</t>
+  </si>
+  <si>
+    <t>Then, for the sake of mercy toward this girl, dost thou not mind if this world perisheth?</t>
+  </si>
+  <si>
+    <t>そ、それは…</t>
+  </si>
+  <si>
+    <t>W-well, that's...</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>…構いません。そんな理屈でクルイツゥアの存在が否定される世界なら、いっそ滅んでしまえばいいんです。</t>
+  </si>
+  <si>
+    <t>...I don't mind. If this world denies Quruitzia's existence based on such reasoning, then it might as well perish.</t>
+  </si>
+  <si>
+    <t>モキュッ！</t>
+  </si>
+  <si>
+    <t>Mokyu!</t>
+  </si>
+  <si>
+    <t>ファ…ファリスさん、それはちょっと言い過ぎじゃ…</t>
+  </si>
+  <si>
+    <t>La...Lady Farris, isn't that going a bit too far...</t>
+  </si>
+  <si>
+    <t>いいえ、ロイテル様。クルイツゥアは私たちの大切な仲間なんですよ。彼女を守るためなら、私は何だってします。例え、この世界の摂理に逆らってでも。
 …当然のことですよね、ロイテル様？</t>
   </si>
   <si>
@@ -908,78 +923,78 @@
 ...It's only natural, isn't it, Lord Loytel? </t>
   </si>
   <si>
-    <t xml:space="preserve">も…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">もちろんだ！
+    <t>も…</t>
+  </si>
+  <si>
+    <t>O...</t>
+  </si>
+  <si>
+    <t>もちろんだ！
 いや、またしても目が覚める思いだ、ファリスさん。</t>
   </si>
   <si>
-    <t xml:space="preserve">Of course!
+    <t>Of course!
 You have opened my eyes once again, Lady Farris.</t>
   </si>
   <si>
-    <t xml:space="preserve">世界がどうとか、そんな話は私の知ったことじゃない。
+    <t>世界がどうとか、そんな話は私の知ったことじゃない。
 クルイツゥアの運命は、クルイツゥア自身が決める。我々は、それを誰にもとやかく言わせないし、イスシズルなどという輩からも守る。
 それだけのことだ。当然だよ。</t>
   </si>
   <si>
-    <t xml:space="preserve">The fate of the world or whatever, that’s not my concern.
+    <t>The fate of the world or whatever, that’s not my concern.
 Quruitzia’s destiny is hers to decide, and we won’t let anyone else dictate it—not Issizzle, not anyone. 
 That's all there is to it. Naturally.</t>
   </si>
   <si>
-    <t xml:space="preserve">だいたい、デミタス、「古きものたち」と言ってもな、イスシズルみたいな危ない奴らと、クルイツゥアたちを一緒にしないでくれ。
+    <t>だいたい、デミタス、「古きものたち」と言ってもな、イスシズルみたいな危ない奴らと、クルイツゥアたちを一緒にしないでくれ。
 「マ…マァ…」「コルゴン♪」なんて一日中イチャついてる連中だぞ？</t>
   </si>
   <si>
-    <t xml:space="preserve">Besides, Demitas, don't lump Quruitzia with dangerous freaks like Issizzle when you talk about 'Old Ones'.
+    <t>Besides, Demitas, don't lump Quruitzia with dangerous freaks like Issizzle when you talk about 'Old Ones'.
 These two spend all day cuddling and calling each other “Ma...maa...” and “Corgon♪,” you know?</t>
   </si>
   <si>
-    <t xml:space="preserve">quru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ファリス…ロイテル…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farris... Loytel...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">感情に流され、理を解さぬ愚かな者たちめ…そうして、同じ過ちがまた繰り返される。
+    <t>quru</t>
+  </si>
+  <si>
+    <t>ファリス…ロイテル…</t>
+  </si>
+  <si>
+    <t>Farris... Loytel...</t>
+  </si>
+  <si>
+    <t>感情に流され、理を解さぬ愚かな者たちめ…そうして、同じ過ちがまた繰り返される。
 汝らは知らぬのだ。救うこともできず、殺すこともできぬがゆえに、存在する苦しみがあることを。汝らの甘さが、この娘にさらなる悲しみをもたらすことを！</t>
   </si>
   <si>
-    <t xml:space="preserve">Fools, swayed by emotion, unheeding of reason... Thus, the same mistakes are repeated.
+    <t>Fools, swayed by emotion, unheeding of reason... Thus, the same mistakes are repeated.
 Ye know not. Ye cannot save, nor can ye slay, and therein lies a suffering unbeknownst to thee. Thy softness shall bring naught but further sorrow upon this girl!</t>
   </si>
   <si>
-    <t xml:space="preserve">デミタス…まさか、君はまだテレシアのことを…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demitas... It's her...isn't it? ...You still think of Telessia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テレシアだと…？ クッ…そうか、ククク…そういうことか。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telessia...? She... Heh, I see... Heh heh heh... So that's how it is.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ククク…この娘に面影を…我としたことが…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heh heh heh... Her resemblance... and I, of all people...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…まあ、私たちも、互いをまだよく知らないということだな。それは、時間をかければ解決できる。
+    <t>デミタス…まさか、君はまだテレシアのことを…</t>
+  </si>
+  <si>
+    <t>Demitas... It's her...isn't it? ...You still think of Telessia.</t>
+  </si>
+  <si>
+    <t>テレシアだと…？ クッ…そうか、ククク…そういうことか。</t>
+  </si>
+  <si>
+    <t>Telessia...? She... Heh, I see... Heh heh heh... So that's how it is.</t>
+  </si>
+  <si>
+    <t>ククク…この娘に面影を…我としたことが…</t>
+  </si>
+  <si>
+    <t>Heh heh heh... Her resemblance... and I, of all people...</t>
+  </si>
+  <si>
+    <t>…まあ、私たちも、互いをまだよく知らないということだな。それは、時間をかければ解決できる。
 差し当たっては、皆で協力して、イスシズルを追い返す方法でも考えようじゃないか。</t>
   </si>
   <si>
-    <t xml:space="preserve">Well, I suppose we still don't know each other well. But that's something time can solve.
+    <t>Well, I suppose we still don't know each other well. But that's something time can solve.
 For now, let's all work together and think of a way to drive Issizzle away.</t>
   </si>
   <si>
@@ -1002,31 +1017,314 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">…でも、今日はこのあたりにしておこうか。もう夜も明けようとしている。</t>
+      <t>…でも、今日はこのあたりにしておこうか。もう夜も明けようとしている。</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">I agree, Loytel. I have some thoughts on that myself.
+    <t>I agree, Loytel. I have some thoughts on that myself.
 ...But perhaps we should leave it at that for today. Dawn is nearly upon us.</t>
   </si>
   <si>
-    <t xml:space="preserve">フッ、まったく、こんな当たり前の結論を出すのに、丸一晩もかかってしまったのだな。
+    <t>フッ、まったく、こんな当たり前の結論を出すのに、丸一晩もかかってしまったのだな。
 #pc、話は聞いていただろう？ これから忙しくなりそうだぞ。</t>
   </si>
   <si>
-    <t xml:space="preserve">Heh, to think it took us all night to reach such an obvious conclusion.
+    <t>Heh, to think it took us all night to reach such an obvious conclusion.
 #pc, you’ve been listening, haven’t you? It looks like things are going to get pretty busy from now on.</t>
+  </si>
+  <si>
+    <t>Você pode ouvir as palavras antigas que o vento sussurra? Eu vagueio por este mundo para aprender a história do vento.</t>
+  </si>
+  <si>
+    <t>Tenho algumas perguntas.</t>
+  </si>
+  <si>
+    <t>Como posso ajudar você?</t>
+  </si>
+  <si>
+    <t>Sobre as pedras mágicas</t>
+  </si>
+  <si>
+    <t>Sobre a copiadora</t>
+  </si>
+  <si>
+    <t>(Voltar)</t>
+  </si>
+  <si>
+    <t>Algumas lendas sobre as pedras mágicas estão nos antigos manuscritos da Biblioteca Real de Palmia._x000D_
+_x000D_
+Diz-se que Palmia já possuiu três poderosas pedras mágicas: a Pedra do Rei, a Pedra do Sábio e a Pedra do Tolo. Essas pedras trouxeram prosperidade ao reino, mas foram enviadas para selar um segredo para sempre durante o reinado do Rei Zashim. Elas foram confiadas às criaturas mais poderosas e malignas._x000D_
+_x000D_
+Uma à antiga família real, uma ao dragão de aço e uma ao necromante corrompido.</t>
+  </si>
+  <si>
+    <t>O que aconteceu com as pedras e com o segredo que o Rei Zashim tentou proteger permanece um mistério desde então. Muitos estudiosos e alquimistas tentaram descobrir a verdade, mas as respostas são tão ilusórias quanto a areia levada pelo vento._x000D_
+_x000D_
+Talvez, um dia, um aventureiro como você seja aquele que resolverá esse mistério.</t>
+  </si>
+  <si>
+    <t>Minha copiadora? Sim, comecei isso para ajudá-lo em suas aventuras._x000D_
+_x000D_
+A antiga alquimia possui técnicas para replicar as propriedades dos materiais. Embora não seja possível duplicar todos os itens, posso replicar itens que você já tenha criado ou sementes, por exemplo.</t>
+  </si>
+  <si>
+    <t>Se você tem um item que deseja duplicar, deixe-o comigo. Pode levar algum tempo, mas tentarei criar cópias regularmente para você._x000D_
+_x000D_
+Ah, e o número máximo de itens que posso duplicar e vender depende do tamanho da minha loja. Odeio dizer isso, mas se precisar de mais itens duplicados, você pode investir na minha loja.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você parece abatida, Loytel. Algo está te incomodando?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kettle, sua aprendiz é uma criança bastante difícil...  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprendiz? Ah, Quruitzia não é minha aprendiz. Na verdade, ela despreza a alquimia.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh? Por quê?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque a mãe dela era uma alquimista.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A mãe de Quruitzia... ela foi uma grande amiga minha. Uma alquimista em uma pequena vila, uma estudiosa extremamente dedicada. Mas, como muitas vezes acontece, os aldeões não a compreendiam.  _x000D_
+_x000D_
+Os aldeões supersticiosos a rejeitaram, chamando-a de bruxa. E, sendo a filha da bruxa, Quruitzia sempre foi excluída pelas outras crianças. Seus olhos naturalmente de cores diferentes eram temidos como 'olhos amaldiçoados'.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Após a morte de sua mãe por doença, Quruitzia foi deixada aos cuidados da igreja da vila, onde continuou sendo uma pária. Um dia, ela mesma arrancou um de seus olhos para provar sua inocência.  _x000D_
+_x000D_
+Quando visitei a vila, encontrei Quruitzia à beira da morte, deitada em uma cama dentro de um barraco abandonado nos arredores. Usei alquimia para salvar sua vida, o que uniu nossos destinos. É por isso que ela continua viajando comigo.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que história... Ser considerada uma bruxa apenas por ter olhos de cores diferentes, que absurdo!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De fato, eu gostaria de concordar, mas, às vezes, certos 'poderes' realmente se manifestam junto com essas características.  _x000D_
+_x000D_
+Não compartilhei seu passado para falar de tragédias ou da tolice dos aldeões.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquele dia... o que vi quando visitei a vila foi uma cena horrível de morte, onde toda forma de vida havia perecido. Se foi o 'poder' dela, eu não posso dizer. Mas, Loytel, e você, #pc, lembrem-se disto:  _x000D_
+_x000D_
+Ela nasceu com um poder peculiar, e esse poder, sem dúvida, afetará os destinos daqueles ao seu redor.  _x000D_
+_x000D_
+Se algum dia quiserem que partamos, basta dizer.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, Kettle...  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nem uma brisa, uma noite assustadoramente silenciosa. Você está aí, não está, Demitas?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heh... Não posso me esconder de ti.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tu és como sempre, Eludin... Pelo menos na aparência.  _x000D_
+_x000D_
+Mesmo agora, tendo me tornado tal ser, falar contigo me faz lembrar de quando eu era humano.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando você era humano, hehe... De fato.  _x000D_
+_x000D_
+Você sempre teve o hábito de se intrometer em tudo.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vagando entre meus companheiros noite após noite, contando histórias estranhas—isso é bem a sua cara.  _x000D_
+_x000D_
+...Mas é só isso? Você está se envolvendo demais com aquela garota.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heh heh heh... Apenas a preocupação de um velho.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquela garota é perigosa. Tu sabes o que habita em seu olho.  _x000D_
+_x000D_
+A de olhar amaldiçoado é o receptáculo de pedra... E mesmo agora, a pedra mágica que dorme dentro da criança-dragão busca seu receptáculo.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demitas, aprecio sua preocupação. Mas enquanto eu estiver ao lado dela, a pedra mágica não despertará.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entendo, se o 'Primeiro Alquimista' diz isso, então deve ser verdade.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Mesmo assim, Eludin, o destino encontrará Quruitzia e Corgon.  </t>
+  </si>
+  <si>
+    <t>O rumor de uma criança-dragão vivendo entre humanos em breve será conhecido por todos. É claro que ninguém ousaria ferir o dragão... Exceto um.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Há alguém que conhece a lenda de que a pedra mágica foi entregue ao Dragão de Aço na época do Rei Zashim, alguém que tem buscado desesperadamente a pedra mágica perdida desde a morte do dragão.  _x000D_
+_x000D_
+Esse alguém ouvirá sobre a criança-dragão e compreenderá seu significado.  _x000D_
+_x000D_
+Esse alguém caçará Quruitzia e Corgon.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Issizzle.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim, 'Issizzle', a abominação sombria.  _x000D_
+_x000D_
+Outrora um grande feiticeiro de renome, agora uma criatura desprezível enredada pela pedra mágica, caída na escuridão... E teu discípulo miserável, a quem não pudeste nem matar nem salvar.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">...  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que farás com essa garota?  _x000D_
+_x000D_
+Eventualmente, ela será escravizada pela pedra mágica, usada por ele ou morta...  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não desvie os olhos da verdade, 'Kettle'.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos, posso pedir um momento?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mokyu?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que houve, Kettle? A essa hora?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Há um perigo se aproximando de nós.  _x000D_
+_x000D_
+Quero que todos saibam disso. Um homem que um dia foi meu aprendiz, e o poder que arde dentro do olho de Quruitzia...  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entendo... Minha cabeça parece que vai girar.  _x000D_
+_x000D_
+O sangue da antiga bruxa que corre em Quruitzia, e então há a Pedra Mágica dentro do pequeno corpo de Corgon?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se o que você está dizendo for verdade, Kettle, e Issizzle estiver vindo atrás da Pedra Mágica... então devemos nos preparar imediatamente. Precisamos proteger Quruitzia e Corgon.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heh heh heh...  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aí está você de novo. O que acha tão engraçado?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A segurança da garota e da criança-dragão não importa.  _x000D_
+_x000D_
+O próprio mundo mostra sinais de seu fim, devido à mera existência deles.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que quer dizer, Demitas?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seres como eles... Os Antigos não trazem nada além de calamidade e estagnação ao mundo. Seu poder é uma fonte de distorção, e seu brilho consome tudo ao redor em chamas.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O significado que nos esforçamos para construir é pisoteado por suas leis, como se fosse apenas poeira. Impotentes e trêmulos, tornamo-nos meros fantoches, condenados a assistir ao destino se desenrolar. Queiram ou não, é sempre assim. Que progresso poderia jamais enraizar-se em um mundo como este?  _x000D_
+_x000D_
+É por essa razão que os deuses cessaram sua interferência na humanidade e partiram da terra. Os Antigos... os filhos criados pelos deuses deveriam seguir seu exemplo também.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Hã?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na verdade, o mundo não precisa de Issizzle, nem de uma criança-dragão ou de uma bruxa. Melhor que desapareçam e sejam esquecidos.  _x000D_
+_x000D_
+Acaso esqueceste a calamidade que tua misericórdia causou, Kettle? Devias ter matado Issizzle. E devias matar essa garota e a criança-dragão também.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ei, espere um momento. Não posso simplesmente deixar isso passar.  _x000D_
+_x000D_
+Quem você pensa que é para falar assim sobre a vida dessas crianças?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quruitzia é um ser perigoso. Tu bem o sabes. O Olho Amaldiçoado da garota trouxe morte a uma vila inteira. E esse poder ainda nem 'despertou'.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mas o que o desencadeou? Não foram os aldeões supersticiosos que levaram Quruitzia ao limite?  _x000D_
+_x000D_
+Ela nem sequer compreendia seu próprio poder. Culpá-la por isso é simplesmente cruel demais.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Então, por misericórdia para com essa garota, não te importas se este mundo perecer?  </t>
+  </si>
+  <si>
+    <t>E-eu... isso é…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...Eu não me importo. Se este mundo nega a existência de Quruitzia com base em tais argumentos, então que pereça.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mokyu!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La... Lady Farris, isso não é um pouco exagerado...?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não, Lorde Loytel. Quruitzia é uma companheira querida para nós. Farei o que for preciso para protegê-la, mesmo que isso signifique desafiar as leis deste mundo.  _x000D_
+_x000D_
+...É apenas natural, não é, Lorde Loytel?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O...  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">É claro!  _x000D_
+_x000D_
+Você abriu meus olhos mais uma vez, Lady Farris.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O destino do mundo ou qualquer outra coisa, isso não me interessa.  _x000D_
+_x000D_
+O destino de Quruitzia pertence a ela, e não deixaremos que ninguém o dite—nem Issizzle, nem ninguém.  _x000D_
+_x000D_
+Isso é tudo. Naturalmente.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Além disso, Demitas, não compare Quruitzia com aberrações perigosas como Issizzle quando falar sobre os 'Antigos'.  _x000D_
+_x000D_
+Esses dois passam o dia inteiro se abraçando e chamando um ao outro de ‘Ma...maa...’ e ‘Corgon♪’, sabia?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farris... Loytel...  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tolos, levados pela emoção, ignorando a razão... E assim, os mesmos erros se repetem.  _x000D_
+_x000D_
+Vós não sabeis. Não podeis salvar, nem podeis matar, e nisso reside um sofrimento que desconheceis. Vossa suavidade não trará nada além de mais dor para essa garota!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demitas... É por causa dela, não é? ...Você ainda pensa em Telessia.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telessia...? Ela... Heh, entendo... Heh heh heh... Então é assim.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heh heh heh... A semelhança... e eu, logo eu...  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bem, acho que ainda não nos conhecemos tão bem. Mas isso é algo que o tempo pode resolver.  _x000D_
+_x000D_
+Por agora, vamos trabalhar juntos e pensar em uma forma de afastar Issizzle.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concordo, Loytel. Eu mesmo tenho algumas ideias sobre isso.  _x000D_
+_x000D_
+...Mas talvez devêssemos encerrar por hoje. O amanhecer está próximo.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heh, pensar que levamos a noite inteira para chegar a uma conclusão tão óbvia.  _x000D_
+_x000D_
+#pc, você estava ouvindo, não estava? Parece que as coisas vão ficar bem agitadas de agora em diante.  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1035,27 +1333,8 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1069,7 +1348,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1128,7 +1406,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1136,108 +1414,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <font>
+        <color rgb="FFCC0000"/>
         <name val="游ゴシック"/>
+        <family val="2"/>
         <charset val="128"/>
-        <family val="2"/>
-        <color rgb="FFCC0000"/>
       </font>
       <fill>
         <patternFill>
@@ -1246,6 +1465,7 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1304,62 +1524,78 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -1412,1643 +1648,1877 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M150"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L150"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K115" activeCellId="0" sqref="K115"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="L129" sqref="L129:L146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="16.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="7.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="60.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="53.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.06"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
+    <col min="8" max="9" width="7.140625" customWidth="1"/>
+    <col min="10" max="10" width="60.7109375" customWidth="1"/>
+    <col min="11" max="11" width="53.28515625" customWidth="1"/>
+    <col min="12" max="12" width="92.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I2" s="1" t="n">
-        <f aca="false">MAX(I4:I1048576)</f>
+    <row r="2" spans="1:12">
+      <c r="I2">
+        <f>MAX(I4:I1048576)</f>
         <v>89</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:12">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I8" s="1" t="n">
+    <row r="8" spans="1:12">
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="s">
+      <c r="L8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="I10">
         <v>2</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="1" t="s">
+      <c r="L10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E12" s="1" t="s">
+    <row r="12" spans="1:12">
+      <c r="E12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E13" s="1" t="s">
+    <row r="13" spans="1:12">
+      <c r="E13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="1" t="n">
+      <c r="I15">
         <v>3</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1" t="s">
+      <c r="L15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="1" t="n">
+      <c r="I16">
         <v>4</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
+      <c r="L16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="1" t="n">
+      <c r="I17">
         <v>21</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="s">
+      <c r="L17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="1" t="n">
+      <c r="I18">
         <v>5</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="s">
+      <c r="L18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="1" t="n">
+    <row r="22" spans="1:12" ht="198">
+      <c r="I22">
         <v>6</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="1" t="n">
+      <c r="L22" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="132">
+      <c r="I23">
         <v>7</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1" t="s">
+      <c r="L23" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="B24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I27" s="1" t="n">
+    <row r="27" spans="1:12" ht="115.5">
+      <c r="I27">
         <v>22</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I28" s="1" t="n">
+      <c r="L27" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="132">
+      <c r="I28">
         <v>23</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1" t="s">
+      <c r="L28" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="B29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="1" t="s">
+    <row r="32" spans="1:12">
+      <c r="E32" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="1" t="s">
+    <row r="33" spans="5:12">
+      <c r="E33" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I34" s="1" t="n">
+    <row r="34" spans="5:12">
+      <c r="I34">
         <v>10</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G35" s="1" t="s">
+      <c r="L34" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12">
+      <c r="G35" t="s">
         <v>47</v>
       </c>
-      <c r="I35" s="1" t="n">
+      <c r="I35">
         <v>11</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I36" s="1" t="n">
+      <c r="L35" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" ht="43.5">
+      <c r="I36">
         <v>12</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G37" s="1" t="s">
+      <c r="L36" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12">
+      <c r="G37" t="s">
         <v>47</v>
       </c>
-      <c r="I37" s="1" t="n">
+      <c r="I37">
         <v>13</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I38" s="1" t="n">
+      <c r="L37" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12">
+      <c r="I38">
         <v>14</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="K38" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G39" s="1" t="s">
+      <c r="L38" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12">
+      <c r="G39" t="s">
         <v>47</v>
       </c>
-      <c r="I39" s="1" t="n">
+      <c r="I39">
         <v>15</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K39" s="9" t="s">
+      <c r="K39" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E40" s="1" t="s">
+      <c r="L39" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="5:12">
+      <c r="E40" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="1" t="n">
+      <c r="F40">
         <v>58</v>
       </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="4"/>
-    </row>
-    <row r="41" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I41" s="1" t="n">
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="5:12" ht="132">
+      <c r="I41">
         <v>16</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="K41" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I42" s="1" t="n">
+      <c r="L41" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12" ht="148.5">
+      <c r="I42">
         <v>17</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J42" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K42" s="6" t="s">
+      <c r="K42" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G43" s="1" t="s">
+      <c r="L42" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12" ht="30">
+      <c r="G43" t="s">
         <v>47</v>
       </c>
-      <c r="I43" s="1" t="n">
+      <c r="I43">
         <v>18</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K43" s="9" t="s">
+      <c r="K43" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I44" s="1" t="n">
+      <c r="L43" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12" ht="82.5">
+      <c r="I44">
         <v>19</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="J44" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K44" s="6" t="s">
+      <c r="K44" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I45" s="1" t="n">
+      <c r="L44" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12" ht="148.5">
+      <c r="I45">
         <v>88</v>
       </c>
-      <c r="J45" s="7" t="s">
+      <c r="J45" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K45" s="6" t="s">
+      <c r="K45" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="M45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G46" s="1" t="s">
+      <c r="L45" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12">
+      <c r="G46" t="s">
         <v>47</v>
       </c>
-      <c r="I46" s="1" t="n">
+      <c r="I46">
         <v>20</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J46" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="K46" s="6" t="s">
+      <c r="K46" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E47" s="1" t="s">
+      <c r="L46" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12">
+      <c r="E47" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E48" s="1" t="s">
+    <row r="48" spans="5:12">
+      <c r="E48" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E51" s="1" t="s">
+    <row r="51" spans="1:12">
+      <c r="E51" t="s">
         <v>46</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E52" s="1" t="s">
+    <row r="52" spans="1:12">
+      <c r="E52" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="53" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6" t="s">
+    <row r="53" spans="1:12">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-    </row>
-    <row r="54" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6" t="s">
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F54" s="6" t="n">
+      <c r="F54" s="4">
         <v>2</v>
       </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-    </row>
-    <row r="55" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6" t="s">
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="F55" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-    </row>
-    <row r="56" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6" t="s">
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-    </row>
-    <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6" t="s">
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F57" s="6" t="n">
+      <c r="F57" s="4">
         <v>2</v>
       </c>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-    </row>
-    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I59" s="1" t="n">
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+    </row>
+    <row r="59" spans="1:12" ht="30">
+      <c r="I59">
         <v>24</v>
       </c>
-      <c r="J59" s="7" t="s">
+      <c r="J59" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K59" s="9" t="s">
+      <c r="K59" s="7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G60" s="1" t="s">
+      <c r="L59" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="G60" t="s">
         <v>88</v>
       </c>
-      <c r="I60" s="1" t="n">
+      <c r="I60">
         <v>25</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="J60" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="K60" s="9" t="s">
+      <c r="K60" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G61" s="1" t="s">
+      <c r="L60" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="57">
+      <c r="G61" t="s">
         <v>88</v>
       </c>
-      <c r="I61" s="1" t="n">
+      <c r="I61">
         <v>26</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="J61" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="K61" s="9" t="s">
+      <c r="K61" s="7" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I62" s="1" t="n">
+      <c r="L61" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="43.5">
+      <c r="I62">
         <v>27</v>
       </c>
-      <c r="J62" s="7" t="s">
+      <c r="J62" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="K62" s="9" t="s">
+      <c r="K62" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I63" s="1" t="n">
+      <c r="L62" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="57">
+      <c r="I63">
         <v>28</v>
       </c>
-      <c r="J63" s="7" t="s">
+      <c r="J63" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="K63" s="9" t="s">
+      <c r="K63" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G64" s="6" t="s">
+      <c r="L63" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="G64" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I64" s="1" t="n">
+      <c r="I64">
         <v>29</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="J64" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="K64" s="9" t="s">
+      <c r="K64" s="7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E65" s="6"/>
-      <c r="F65" s="10"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="9"/>
-    </row>
-    <row r="66" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G66" s="6" t="s">
+      <c r="L64" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="5:12">
+      <c r="E65" s="4"/>
+      <c r="F65" s="8"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+    </row>
+    <row r="66" spans="5:12" ht="70.5">
+      <c r="G66" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I66" s="1" t="n">
+      <c r="I66">
         <v>30</v>
       </c>
-      <c r="J66" s="7" t="s">
+      <c r="J66" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K66" s="9" t="s">
+      <c r="K66" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E67" s="6"/>
-      <c r="F67" s="10"/>
-      <c r="I67" s="1" t="n">
+      <c r="L66" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="5:12" ht="30">
+      <c r="E67" s="4"/>
+      <c r="F67" s="8"/>
+      <c r="I67">
         <v>31</v>
       </c>
-      <c r="J67" s="7" t="s">
+      <c r="J67" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K67" s="9" t="s">
+      <c r="K67" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E68" s="6" t="s">
+      <c r="L67" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="68" spans="5:12">
+      <c r="E68" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="F68" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J68" s="7"/>
-      <c r="K68" s="9"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J69" s="7"/>
-      <c r="K69" s="9"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G70" s="6" t="s">
+      <c r="J68" s="5"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+    </row>
+    <row r="69" spans="5:12">
+      <c r="J69" s="5"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+    </row>
+    <row r="70" spans="5:12" ht="30">
+      <c r="G70" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I70" s="1" t="n">
+      <c r="I70">
         <v>32</v>
       </c>
-      <c r="J70" s="7" t="s">
+      <c r="J70" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="K70" s="9" t="s">
+      <c r="K70" s="7" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E71" s="6"/>
-      <c r="F71" s="10"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="4"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G72" s="6" t="s">
+      <c r="L70" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="71" spans="5:12">
+      <c r="E71" s="4"/>
+      <c r="F71" s="8"/>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="5:12">
+      <c r="G72" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I72" s="1" t="n">
+      <c r="I72">
         <v>33</v>
       </c>
-      <c r="J72" s="7" t="s">
+      <c r="J72" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="K72" s="4" t="s">
+      <c r="K72" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E73" s="6" t="s">
+      <c r="L72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="5:12">
+      <c r="E73" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F73" s="10" t="s">
+      <c r="F73" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="J73" s="7"/>
-      <c r="K73" s="4"/>
-    </row>
-    <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E74" s="6"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="6" t="s">
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="5:12" ht="30">
+      <c r="E74" s="4"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I74" s="1" t="n">
+      <c r="I74">
         <v>34</v>
       </c>
-      <c r="J74" s="7" t="s">
+      <c r="J74" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="K74" s="9" t="s">
+      <c r="K74" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J75" s="7"/>
-      <c r="K75" s="6"/>
-    </row>
-    <row r="76" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G76" s="1" t="s">
+      <c r="L74" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="5:12">
+      <c r="J75" s="5"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+    </row>
+    <row r="76" spans="5:12" ht="43.5">
+      <c r="G76" t="s">
         <v>88</v>
       </c>
-      <c r="I76" s="1" t="n">
+      <c r="I76">
         <v>35</v>
       </c>
-      <c r="J76" s="7" t="s">
+      <c r="J76" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="K76" s="9" t="s">
+      <c r="K76" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I77" s="1" t="n">
+      <c r="L76" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="5:12">
+      <c r="I77">
         <v>36</v>
       </c>
-      <c r="J77" s="7" t="s">
+      <c r="J77" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K77" s="6" t="s">
+      <c r="K77" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J78" s="7"/>
-      <c r="K78" s="6"/>
-    </row>
-    <row r="79" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G79" s="1" t="s">
+      <c r="L77" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="5:12">
+      <c r="J78" s="5"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+    </row>
+    <row r="79" spans="5:12" ht="117">
+      <c r="G79" t="s">
         <v>88</v>
       </c>
-      <c r="I79" s="1" t="n">
+      <c r="I79">
         <v>37</v>
       </c>
-      <c r="J79" s="7" t="s">
+      <c r="J79" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="K79" s="9" t="s">
+      <c r="K79" s="7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I80" s="1" t="n">
+      <c r="L79" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="5:12">
+      <c r="I80">
         <v>87</v>
       </c>
-      <c r="J80" s="7" t="s">
+      <c r="J80" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="K80" s="9" t="s">
+      <c r="K80" s="7" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G81" s="1" t="s">
+      <c r="L80" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="70.5">
+      <c r="G81" t="s">
         <v>88</v>
       </c>
-      <c r="I81" s="1" t="n">
+      <c r="I81">
         <v>38</v>
       </c>
-      <c r="J81" s="7" t="s">
+      <c r="J81" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="K81" s="9" t="s">
+      <c r="K81" s="7" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I82" s="1" t="n">
+      <c r="L81" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="I82">
         <v>39</v>
       </c>
-      <c r="J82" s="7" t="s">
+      <c r="J82" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K82" s="6" t="s">
+      <c r="K82" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G83" s="1" t="s">
+      <c r="L82" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="66">
+      <c r="G83" t="s">
         <v>88</v>
       </c>
-      <c r="I83" s="1" t="n">
+      <c r="I83">
         <v>40</v>
       </c>
-      <c r="J83" s="7" t="s">
+      <c r="J83" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="K83" s="6" t="s">
+      <c r="K83" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G84" s="1" t="s">
+      <c r="L83" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="82.5">
+      <c r="G84" t="s">
         <v>88</v>
       </c>
-      <c r="I84" s="1" t="n">
+      <c r="I84">
         <v>41</v>
       </c>
-      <c r="J84" s="7" t="s">
+      <c r="J84" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="K84" s="6" t="s">
+      <c r="K84" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E85" s="6" t="s">
+      <c r="L84" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="E85" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F85" s="10" t="n">
+      <c r="F85" s="8">
         <v>3</v>
       </c>
-      <c r="J85" s="7"/>
-      <c r="K85" s="6"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E86" s="1" t="s">
+      <c r="J85" s="5"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="E86" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E87" s="1" t="s">
+    <row r="87" spans="1:12">
+      <c r="E87" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
+    <row r="90" spans="1:12">
+      <c r="A90" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E91" s="1" t="s">
+    <row r="91" spans="1:12">
+      <c r="E91" t="s">
         <v>46</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G91" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="1" t="s">
+    <row r="92" spans="1:12">
+      <c r="E92" t="s">
         <v>48</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6" t="s">
+    <row r="93" spans="1:12">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F93" s="10" t="s">
+      <c r="F93" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-      <c r="M93" s="1"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6" t="s">
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F94" s="6" t="n">
+      <c r="F94" s="4">
         <v>2</v>
       </c>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-      <c r="M94" s="1"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6" t="s">
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F95" s="11" t="s">
+      <c r="F95" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="1"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="1"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6" t="s">
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F97" s="6" t="n">
+      <c r="F97" s="4">
         <v>2</v>
       </c>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="1"/>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G99" s="6" t="s">
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+    </row>
+    <row r="99" spans="1:12" ht="18.75">
+      <c r="G99" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I99" s="1" t="n">
+      <c r="I99">
         <v>50</v>
       </c>
-      <c r="J99" s="12" t="s">
+      <c r="J99" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="K99" s="9" t="s">
+      <c r="K99" s="7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G100" s="6" t="s">
+      <c r="L99" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="18.75">
+      <c r="G100" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I100" s="1" t="n">
+      <c r="I100">
         <v>51</v>
       </c>
-      <c r="J100" s="12" t="s">
+      <c r="J100" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="K100" s="9" t="s">
+      <c r="K100" s="7" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G101" s="6" t="s">
+      <c r="L100" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="18.75">
+      <c r="G101" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I101" s="1" t="n">
+      <c r="I101">
         <v>52</v>
       </c>
-      <c r="J101" s="12" t="s">
+      <c r="J101" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="K101" s="9" t="s">
+      <c r="K101" s="7" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G102" s="6" t="s">
+      <c r="L101" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="93.75">
+      <c r="G102" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I102" s="1" t="n">
+      <c r="I102">
         <v>53</v>
       </c>
-      <c r="J102" s="12" t="s">
+      <c r="J102" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K102" s="9" t="s">
+      <c r="K102" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E103" s="6" t="s">
+      <c r="L102" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="E103" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F103" s="6" t="n">
+      <c r="F103" s="4">
         <v>1</v>
       </c>
-      <c r="J103" s="7"/>
-      <c r="K103" s="9"/>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E104" s="6" t="s">
+      <c r="J103" s="5"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="E104" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F104" s="10" t="s">
+      <c r="F104" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="J104" s="7"/>
-      <c r="K104" s="9"/>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E105" s="6" t="s">
+      <c r="J104" s="5"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="E105" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F105" s="6" t="n">
+      <c r="F105" s="4">
         <v>1</v>
       </c>
-      <c r="G105" s="6"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="9"/>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E106" s="6"/>
-      <c r="F106" s="10"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="9"/>
-    </row>
-    <row r="107" customFormat="false" ht="45.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G107" s="6" t="s">
+      <c r="G105" s="4"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="7"/>
+      <c r="L105" s="7"/>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="E106" s="4"/>
+      <c r="F106" s="8"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="7"/>
+      <c r="L106" s="7"/>
+    </row>
+    <row r="107" spans="1:12" ht="66">
+      <c r="G107" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I107" s="1" t="n">
+      <c r="I107">
         <v>54</v>
       </c>
-      <c r="J107" s="6" t="s">
+      <c r="J107" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="K107" s="9" t="s">
+      <c r="K107" s="7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E108" s="6"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="6" t="s">
+      <c r="L107" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="56.25">
+      <c r="E108" s="4"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I108" s="1" t="n">
+      <c r="I108">
         <v>55</v>
       </c>
-      <c r="J108" s="12" t="s">
+      <c r="J108" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K108" s="9" t="s">
+      <c r="K108" s="7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E109" s="6"/>
-      <c r="F109" s="10"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="9"/>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E110" s="6"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="6" t="s">
+      <c r="L108" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="18.75">
+      <c r="E109" s="4"/>
+      <c r="F109" s="8"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
+    </row>
+    <row r="110" spans="1:12" ht="18.75">
+      <c r="E110" s="4"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I110" s="1" t="n">
+      <c r="I110">
         <v>56</v>
       </c>
-      <c r="J110" s="12" t="s">
+      <c r="J110" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="K110" s="9" t="s">
+      <c r="K110" s="7" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E111" s="6"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="6" t="s">
+      <c r="L110" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="18.75">
+      <c r="E111" s="4"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I111" s="1" t="n">
+      <c r="I111">
         <v>57</v>
       </c>
-      <c r="J111" s="12" t="s">
+      <c r="J111" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="K111" s="9" t="s">
+      <c r="K111" s="7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G112" s="6" t="s">
+      <c r="L111" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="75">
+      <c r="G112" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I112" s="1" t="n">
+      <c r="I112">
         <v>58</v>
       </c>
-      <c r="J112" s="12" t="s">
+      <c r="J112" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="K112" s="9" t="s">
+      <c r="K112" s="7" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G113" s="6" t="s">
+      <c r="L112" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="113" spans="5:12" ht="18.75">
+      <c r="G113" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I113" s="1" t="n">
+      <c r="I113">
         <v>59</v>
       </c>
-      <c r="J113" s="12" t="s">
+      <c r="J113" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="K113" s="9" t="s">
+      <c r="K113" s="7" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G114" s="6" t="s">
+      <c r="L113" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="114" spans="5:12" ht="57">
+      <c r="G114" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I114" s="1" t="n">
+      <c r="I114">
         <v>60</v>
       </c>
-      <c r="J114" s="13" t="s">
+      <c r="J114" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K114" s="7" t="s">
+      <c r="K114" s="5" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G115" s="6" t="s">
+      <c r="L114" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="115" spans="5:12" ht="151.5">
+      <c r="G115" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I115" s="1" t="n">
+      <c r="I115">
         <v>89</v>
       </c>
-      <c r="J115" s="13" t="s">
+      <c r="J115" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K115" s="14" t="s">
+      <c r="K115" s="11" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G116" s="6" t="s">
+      <c r="L115" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="116" spans="5:12" ht="18.75">
+      <c r="G116" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I116" s="1" t="n">
+      <c r="I116">
         <v>61</v>
       </c>
-      <c r="J116" s="12" t="s">
+      <c r="J116" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="K116" s="9" t="s">
+      <c r="K116" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G117" s="6" t="s">
+      <c r="L116" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="117" spans="5:12" ht="112.5">
+      <c r="G117" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I117" s="1" t="n">
+      <c r="I117">
         <v>62</v>
       </c>
-      <c r="J117" s="12" t="s">
+      <c r="J117" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="K117" s="14" t="s">
+      <c r="K117" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G118" s="6" t="s">
+      <c r="L117" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="118" spans="5:12">
+      <c r="G118" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I118" s="1" t="n">
+      <c r="I118">
         <v>63</v>
       </c>
-      <c r="J118" s="7" t="s">
+      <c r="J118" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K118" s="4" t="s">
+      <c r="K118" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E119" s="6"/>
-      <c r="F119" s="10"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="4"/>
-    </row>
-    <row r="120" customFormat="false" ht="45.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E120" s="6"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="6" t="s">
+      <c r="L118" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="119" spans="5:12">
+      <c r="E119" s="4"/>
+      <c r="F119" s="8"/>
+      <c r="J119" s="5"/>
+    </row>
+    <row r="120" spans="5:12" ht="56.25">
+      <c r="E120" s="4"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I120" s="1" t="n">
+      <c r="I120">
         <v>64</v>
       </c>
-      <c r="J120" s="12" t="s">
+      <c r="J120" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="K120" s="9" t="s">
+      <c r="K120" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="121" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G121" s="6" t="s">
+      <c r="L120" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="121" spans="5:12" ht="56.25">
+      <c r="G121" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I121" s="1" t="n">
+      <c r="I121">
         <v>65</v>
       </c>
-      <c r="J121" s="12" t="s">
+      <c r="J121" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="K121" s="9" t="s">
+      <c r="K121" s="7" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G122" s="6" t="s">
+      <c r="L121" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="122" spans="5:12" ht="70.5">
+      <c r="G122" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I122" s="1" t="n">
+      <c r="I122">
         <v>66</v>
       </c>
-      <c r="J122" s="7" t="s">
+      <c r="J122" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="K122" s="9" t="s">
+      <c r="K122" s="7" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G123" s="6" t="s">
+      <c r="L122" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="123" spans="5:12" ht="37.5">
+      <c r="G123" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I123" s="1" t="n">
+      <c r="I123">
         <v>67</v>
       </c>
-      <c r="J123" s="12" t="s">
+      <c r="J123" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="K123" s="9" t="s">
+      <c r="K123" s="7" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E124" s="6" t="s">
+      <c r="L123" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="124" spans="5:12" ht="18.75">
+      <c r="E124" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F124" s="10" t="s">
+      <c r="F124" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J124" s="12"/>
-      <c r="K124" s="6"/>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G125" s="6" t="s">
+      <c r="J124" s="10"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+    </row>
+    <row r="125" spans="5:12" ht="18.75">
+      <c r="G125" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I125" s="1" t="n">
+      <c r="I125">
         <v>68</v>
       </c>
-      <c r="J125" s="12" t="s">
+      <c r="J125" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="K125" s="9" t="s">
+      <c r="K125" s="7" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E126" s="6"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="6"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="6"/>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E127" s="6"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="6"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="6"/>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E128" s="6" t="s">
+      <c r="L125" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="126" spans="5:12" ht="18.75">
+      <c r="E126" s="4"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="4"/>
+      <c r="J126" s="10"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+    </row>
+    <row r="127" spans="5:12" ht="18.75">
+      <c r="E127" s="4"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="4"/>
+      <c r="J127" s="10"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+    </row>
+    <row r="128" spans="5:12" ht="18.75">
+      <c r="E128" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F128" s="10" t="s">
+      <c r="F128" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="J128" s="12"/>
-      <c r="K128" s="6"/>
-    </row>
-    <row r="129" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G129" s="6" t="s">
+      <c r="J128" s="10"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+    </row>
+    <row r="129" spans="7:12" ht="37.5">
+      <c r="G129" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I129" s="1" t="n">
+      <c r="I129">
         <v>69</v>
       </c>
-      <c r="J129" s="12" t="s">
+      <c r="J129" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="K129" s="9" t="s">
+      <c r="K129" s="7" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G130" s="6" t="s">
+      <c r="L129" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="130" spans="7:12" ht="18.75">
+      <c r="G130" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I130" s="1" t="n">
+      <c r="I130">
         <v>70</v>
       </c>
-      <c r="J130" s="12" t="s">
+      <c r="J130" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="K130" s="9" t="s">
+      <c r="K130" s="7" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G131" s="6" t="s">
+      <c r="L130" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="7:12" ht="18.75">
+      <c r="G131" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I131" s="1" t="n">
+      <c r="I131">
         <v>71</v>
       </c>
-      <c r="J131" s="12" t="s">
+      <c r="J131" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="K131" s="9" t="s">
+      <c r="K131" s="7" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="132" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G132" s="6" t="s">
+      <c r="L131" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="132" spans="7:12" ht="93.75">
+      <c r="G132" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I132" s="1" t="n">
+      <c r="I132">
         <v>72</v>
       </c>
-      <c r="J132" s="12" t="s">
+      <c r="J132" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="K132" s="9" t="s">
+      <c r="K132" s="7" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G133" s="6" t="s">
+      <c r="L132" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" spans="7:12" ht="18.75">
+      <c r="G133" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I133" s="1" t="n">
+      <c r="I133">
         <v>73</v>
       </c>
-      <c r="J133" s="12" t="s">
+      <c r="J133" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="K133" s="6" t="s">
+      <c r="K133" s="4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="134" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G134" s="6" t="s">
+      <c r="L133" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="134" spans="7:12" ht="56.25">
+      <c r="G134" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I134" s="1" t="n">
+      <c r="I134">
         <v>74</v>
       </c>
-      <c r="J134" s="12" t="s">
+      <c r="J134" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="K134" s="6" t="s">
+      <c r="K134" s="4" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="135" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G135" s="6" t="s">
+      <c r="L134" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="135" spans="7:12" ht="131.25">
+      <c r="G135" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I135" s="1" t="n">
+      <c r="I135">
         <v>75</v>
       </c>
-      <c r="J135" s="12" t="s">
+      <c r="J135" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="K135" s="6" t="s">
+      <c r="K135" s="4" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="136" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G136" s="6" t="s">
+      <c r="L135" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="136" spans="7:12" ht="18.75">
+      <c r="G136" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I136" s="1" t="n">
+      <c r="I136">
         <v>76</v>
       </c>
-      <c r="J136" s="12" t="s">
+      <c r="J136" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="K136" s="9" t="s">
+      <c r="K136" s="7" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="137" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G137" s="6" t="s">
+      <c r="L136" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="137" spans="7:12" ht="82.5">
+      <c r="G137" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I137" s="1" t="n">
+      <c r="I137">
         <v>77</v>
       </c>
-      <c r="J137" s="5" t="s">
+      <c r="J137" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="K137" s="6" t="s">
+      <c r="K137" s="4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G138" s="6" t="s">
+      <c r="L137" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="138" spans="7:12" ht="18.75">
+      <c r="G138" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="I138" s="1" t="n">
+      <c r="I138">
         <v>78</v>
       </c>
-      <c r="J138" s="12" t="s">
+      <c r="J138" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="K138" s="9" t="s">
+      <c r="K138" s="7" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G139" s="6" t="s">
+      <c r="L138" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="139" spans="7:12" ht="18.75">
+      <c r="G139" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I139" s="1" t="n">
+      <c r="I139">
         <v>79</v>
       </c>
-      <c r="J139" s="12" t="s">
+      <c r="J139" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K139" s="6" t="s">
+      <c r="K139" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="140" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G140" s="6" t="s">
+      <c r="L139" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="140" spans="7:12" ht="99">
+      <c r="G140" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I140" s="1" t="n">
+      <c r="I140">
         <v>80</v>
       </c>
-      <c r="J140" s="7" t="s">
+      <c r="J140" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="K140" s="6" t="s">
+      <c r="K140" s="4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I141" s="1" t="n">
+      <c r="L140" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="141" spans="7:12" ht="18.75">
+      <c r="I141">
         <v>81</v>
       </c>
-      <c r="J141" s="12" t="s">
+      <c r="J141" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="K141" s="9" t="s">
+      <c r="K141" s="7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="142" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G142" s="6" t="s">
+      <c r="L141" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="142" spans="7:12" ht="37.5">
+      <c r="G142" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I142" s="1" t="n">
+      <c r="I142">
         <v>82</v>
       </c>
-      <c r="J142" s="12" t="s">
+      <c r="J142" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="K142" s="9" t="s">
+      <c r="K142" s="7" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="143" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G143" s="6" t="s">
+      <c r="L142" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="143" spans="7:12" ht="18.75">
+      <c r="G143" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I143" s="1" t="n">
+      <c r="I143">
         <v>83</v>
       </c>
-      <c r="J143" s="12" t="s">
+      <c r="J143" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="K143" s="9" t="s">
+      <c r="K143" s="7" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="144" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G144" s="6" t="s">
+      <c r="L143" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="144" spans="7:12" ht="93.75">
+      <c r="G144" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I144" s="1" t="n">
+      <c r="I144">
         <v>84</v>
       </c>
-      <c r="J144" s="12" t="s">
+      <c r="J144" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="K144" s="6" t="s">
+      <c r="K144" s="4" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="145" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G145" s="6" t="s">
+      <c r="L144" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="145" spans="5:12" ht="89.25">
+      <c r="G145" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I145" s="1" t="n">
+      <c r="I145">
         <v>85</v>
       </c>
-      <c r="J145" s="12" t="s">
+      <c r="J145" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="K145" s="6" t="s">
+      <c r="K145" s="4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="146" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G146" s="6" t="s">
+      <c r="L145" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="146" spans="5:12" ht="93.75">
+      <c r="G146" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I146" s="1" t="n">
+      <c r="I146">
         <v>86</v>
       </c>
-      <c r="J146" s="12" t="s">
+      <c r="J146" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="K146" s="6" t="s">
+      <c r="K146" s="4" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J147" s="12"/>
-      <c r="K147" s="6"/>
-    </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E148" s="6"/>
-      <c r="F148" s="10"/>
-      <c r="J148" s="7"/>
-      <c r="K148" s="6"/>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E150" s="1" t="s">
+      <c r="L146" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="147" spans="5:12" ht="18.75">
+      <c r="J147" s="10"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="4"/>
+    </row>
+    <row r="148" spans="5:12">
+      <c r="E148" s="4"/>
+      <c r="F148" s="8"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+    </row>
+    <row r="150" spans="5:12">
+      <c r="E150" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I4:I1048576">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>